--- a/Data/DBStructure.xlsx
+++ b/Data/DBStructure.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="864" yWindow="936" windowWidth="14436" windowHeight="8208"/>
+    <workbookView xWindow="864" yWindow="936" windowWidth="14436" windowHeight="8208" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
   <si>
     <t>Tables</t>
   </si>
@@ -64,9 +64,6 @@
     <t>FLOAT(23,8)</t>
   </si>
   <si>
-    <t>DATE</t>
-  </si>
-  <si>
     <t>PRICE</t>
   </si>
   <si>
@@ -136,7 +133,19 @@
     <t>CHAR(3)</t>
   </si>
   <si>
-    <t>VARCHAR(20)</t>
+    <t>DATE_ID</t>
+  </si>
+  <si>
+    <t>PPP</t>
+  </si>
+  <si>
+    <t>CPI</t>
+  </si>
+  <si>
+    <t>PPI</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
   </si>
 </sst>
 </file>
@@ -528,7 +537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -569,10 +578,10 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -590,15 +599,15 @@
   <cols>
     <col min="1" max="1" width="17.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="8" max="8" width="9.21875" customWidth="1"/>
+    <col min="11" max="11" width="9.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>14</v>
@@ -633,40 +642,40 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
       <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
         <v>19</v>
-      </c>
-      <c r="F2" t="s">
-        <v>20</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
       </c>
       <c r="H2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>9</v>
-      </c>
-      <c r="J2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -689,13 +698,13 @@
       <c r="G3">
         <v>14.507</v>
       </c>
+      <c r="H3">
+        <v>1.9362999999999999</v>
+      </c>
+      <c r="I3">
+        <v>1.6459999999999999</v>
+      </c>
       <c r="J3">
-        <v>1.9362999999999999</v>
-      </c>
-      <c r="K3">
-        <v>1.6459999999999999</v>
-      </c>
-      <c r="L3">
         <v>7.353743347</v>
       </c>
     </row>
@@ -719,13 +728,13 @@
       <c r="G4">
         <v>14.170999999999999</v>
       </c>
+      <c r="H4">
+        <v>1.9568000000000001</v>
+      </c>
+      <c r="I4">
+        <v>1.605</v>
+      </c>
       <c r="J4">
-        <v>1.9568000000000001</v>
-      </c>
-      <c r="K4">
-        <v>1.605</v>
-      </c>
-      <c r="L4">
         <v>6.7620652530000003</v>
       </c>
     </row>
@@ -749,13 +758,13 @@
       <c r="G5">
         <v>16.885999999999999</v>
       </c>
+      <c r="H5">
+        <v>2.0383</v>
+      </c>
+      <c r="I5">
+        <v>1.7450000000000001</v>
+      </c>
       <c r="J5">
-        <v>2.0383</v>
-      </c>
-      <c r="K5">
-        <v>1.7450000000000001</v>
-      </c>
-      <c r="L5">
         <v>6.9705944820000001</v>
       </c>
     </row>
@@ -779,18 +788,18 @@
       <c r="G6">
         <v>16.846</v>
       </c>
+      <c r="H6">
+        <v>2.113</v>
+      </c>
+      <c r="I6">
+        <v>1.7929999999999999</v>
+      </c>
       <c r="J6">
-        <v>2.113</v>
-      </c>
-      <c r="K6">
-        <v>1.7929999999999999</v>
-      </c>
-      <c r="L6">
         <v>7.2736734759999999</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="H8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -799,82 +808,102 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>28</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42400</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>11.13888889</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42429</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>11.13888889</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>42460</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>11.13888889</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42490</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>11.13888889</v>
@@ -889,59 +918,68 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
       </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" t="s">
         <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>31</v>
       </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
